--- a/Replication Package/documentation/rider-audits/compliance-pilot/codebooks/ride.xlsx
+++ b/Replication Package/documentation/rider-audits/compliance-pilot/codebooks/ride.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio_vagao_rosa\documentation\rider-audits\compliance-pilot\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1D0469-1F93-4D8E-B152-77F980988624}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA5705C-1D97-417D-9F72-2BAD45B24414}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -246,9 +246,6 @@
     <t>stage</t>
   </si>
   <si>
-    <t>phase (2 = 1) (3 4 5 6 7 = 2) (8 = 3) (1 = 4)</t>
-  </si>
-  <si>
     <t>started</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>ride_men_present</t>
+  </si>
+  <si>
+    <t>(2 = 1) (3 4 5 6 7 = 2) (8 = 3) (1 = 4)</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -754,7 +754,7 @@
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1003,14 +1003,11 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" t="s">
-        <v>71</v>
-      </c>
       <c r="G16" t="s">
         <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1048,23 +1045,23 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="E21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
